--- a/dungill_scrap_data.xlsx
+++ b/dungill_scrap_data.xlsx
@@ -655,7 +655,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Sabre is the largest global distribution systems provider for air bookings in North America. It's software, data, mobile and distribution solutions are used by hundreds of airlines and thousands of hotel properties to manage critical operations. Sabre is a leading software and technology company that powers the global travel industry. It partners with airlines, hoteliers, agencies and other travel partners to retail, distribute and fulfill travel. Its technology is the intelligence behind mobile apps, airport check-in kiosks, online travel sites, airline and hotel reservation networks, travel agent terminals, and scores of other travel solutions.</t>
+          <t>Sabre is the largest global distribution systems provider for air bookings in North America. It's software, data, mobile and distribution solutions are used by hundreds of airlines and thousands of hotel properties to manage critical operations.</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -733,9 +733,39 @@
           <t>April 28, 2023</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>https://www.gentex.com</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Gentex Corporation is an American electronics and technology company that develops, designs and manufactures automatic-dimming rear-view mirrors, camera-based driver assistance systems, and other equipment for the global automotive industry. They produce dimmable aircraft windows for the commercial, business and general aviation markets. In addition, the company produces photoelectric smoke detectors, signaling devices, and the HomeLink Wireless Control System for the North American fire protection market. The company's customers are GM, Ford, BMW, Mercedes, Tesla, Airbus, Audi, Toyota, Mazda, Nissan, Honda, Porshe, Bentley and so on.</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>00 - Databases
+01 - Engineering
+02 - PROJECTS
+03 - Manufacturing production
+04 - Product marketing
+05 - Quality management
+06 - Management
+07 - Client Documents
+08 - Client Contracts
+09 - inance(Finance Private Data, Financial Reports, Forecasts, Credits, Banking)
+10 - Accounting
+11 - HR info (Confidential and General)
+12 - NDA
+13 - Operations
+14 - Legal Department Docs
+15 - Business Agreements
+16 - Confidential
+17 - IT-Infrastructure
+18 - Emails</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -755,7 +785,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>ANDRADE GUTIERREZ is a Brazilian private multinational conglomerate headquartered in Belo Horizonte. As of 2013, Andrade Gutierrez is the second largest construction company in Brazil with branches in 44 countries and a net income of 8 billion BRL. In the engineering segment, AG operates in the construction of hydroelectric power plants, thermoelectric power plants, nuclear power plants, petrochemical plants, mining, steel industry, refineries, harbors, subways, sanitation and urbanization, airports, railroads, civil engineering. ZAGOPE - Construções e Engenharia S.A. founded in 1967 as a company specialized in public works, ZAGOPE - CONSTRUÇÕES E ENGENHARIA, S.A. currently has a prominent place in the engineering and construction scenario, developing structuring projects in the public and private sector both national and internationally. Based in Lisbon, Portugal, Zagope is responsible for Andrade Gutierrez's activities in Europe, Asia, Africa and the Middle East. With around 8000 employees, Zagope is the biggest exporter and employer of the construction sector in Portugal, ranked 3rd largest construction company and 4th largest company in Portugal. The subsidiary's volume of business went from €160 million in 2004 to €506 million in 2011. PREVIOUS LOT: Incredible Technologies NEXT LOT:          Gentex Corporation Total data volume: 2.1 TB The amount of ANDRADE GUTIERREZ data reaches 570Gb and includes data on such projects as: 2022 00 - Jeferson 01 - Moega Paranaguá - PR 02 - Eólica Santo Agostinho - RN 03 - Barcareana  II - PA 04 - CCR  Marginais Casteo Branco - SP 05 - Terminal da CSN - Itaguaí  -RJ 06 - Minoroduto Hydro- PA 07 - REPAR INFRA - MG 08 - UTE PORTOCEM -CE 09 - Entorno da Arena MRV  - MG 10 - UFV TABOLEIRO DO MEIO - PB 11 - UFV Solar Nexa - negócio -MG 12 - Projeto Almas Aura Minerals - TO 13 - Terminal portuário TEG  TEAG - SP 14 - Crédito ICMS TEN - BA 15 - Estudo desmobilização ARIPU - BA 16 - Linha de Transmissão EDP Brasil - SP - MG 17 - Mibon - Nexa Paracatu - MG 18 - RUMO EXTENÇÃO MALHA NORTE - MT 19 - Nexa  aluguel de equipamento + MO - MT 20 - Viaduto Eldorado - SP 21 - MIPBR  - Mina Pau Branco - MG 22 - UFV Riacho da Serra - RN 22 - UFV Riacho da Serra - SRISE - Linha de Transmissão - RN 23 - Butantan - Prédio 404 - SP 24 - SMVS - UFV Monte Verde - RN 25 - Fabrica Estrela Galicia  Araraquara - SP 26 - Equinor Serviço de engenharia - RJ 27 - UFV Heze - Shell -MG 28 - UTE COMPASS 29 - Edital Butantan P60 - Fase 2 30 - UTE GERAMAR III  - MA 31 - Mina Tucano Great Panther - AP 32 - Novo Oriente 33 - UFV São Magno 34 - EOL  Barra do Mendes 35 - UFV Ribeiro Gonçalvez 36 - MIPRW - Patio de Ron e Wetland - Aripuanã -MT 37 - FPSO  P-79 SAIPEM 38 - Obras Litotal Paulista 39 - UTE AZULÃO 40 - SES CABANGA - PE 41 - EOL Ventos de Santa Marcela 42 - UFV São Magno (BA) 43 - TECAB-TEJAB - ETE BRK 44 - FIOL1 - Ferrovia Integração Oeste Leste (Referências) 45 - Terminal de Regas do Maranhão 46 - Porto de Aratu (PARON E PAROF 47 - Rio Brasil Terminal (PRBT1) 48 - Gavião Belo (GAGBL) e Plantas de Liquefação (GALIQ) - Eneva 50 - UFV Marangatu - PI 51 - UFV CASCUDO - RN 54 - Mina Pilar - BA 55 - UFV SOLAR BARREIRAS - BA 56 - Linhão Manaus - Boa Vista 57 - PORTO BRASIL TERMINAL - PRBT1 58 - PARON - Porto Aratu Onshore - BA 59 - PAROF - Porto Aratu Offshore - BA 60 - Mina Riacho dos Machados - MG 61 - Projeto Níquel de Araguaia - PA 62 - MIMMI - Mineração Aurora 63 - Mineração Morro do Ipê 64 - Mineração Morro do Chapéu 65 - UFV - Ribeiro Gonçalves 66 - VALPARAISO 67 - Regaseificação Imperatriz - MA 2021 00 - UFV Ciranda 01 - Mina Alemão - PA 02 - Reassent. Paracatu - Un Habitacionais e Bens Públicos 03 - MRN - Construção SP23 + Escavação Incrementa - PA 03 - Projeto Jubarte - Suzano - MS 04 - Complexo Eólico Serra Serido - PB 05 - UFV Lavras - CE 06 - Monotrilho Panamá 07 - Cedae  RJ Bloco 4 - RJ 08 - MIna Serra Grande - GO 09 - UFV Serra Talhada - BA 0a - Obras em Andamento 10 - Parque Eolico Bahia Novo Horizonte - BA 11 - UFV Janaúba II - MG 12 - Ferrovia N Sl trecho 3 - GO 13 - Terminal de Regaseificação Baía de Babitonga - SC 14 - Projeto OZ - Mina Alemão - PA 15 - Projeto Descaracterização Bocaina - MG 16 - Projeto Fiocruz - RJ 17 - UFV LAR DO SOL - MG 18 - Logística GHH 19 - UFV Nova Esperança - RN 20 - Projeto SPOT, São João da Barra, RJ  TANCAG 21 - Minas Boa Vista e Chapadao - CMOC - GO 22 - Serra Grande 23 - Planta de Etanol - California US 24 - Porto Suape - PE 25 - ECJBSA - Estrutura de Contenção de Jusante da Mina de Serra Azul - MG 26 - EOL Serra do Seridó 27 - UTE RESSURREIÇAO 28 - RIACHO DA SERRA 29 - OUROLANDIA 30 - BARCARENA II E III 31 - Projeto Cmoc - GO 32 - UFV Castilho - SP 33 - Comp. Eólico Oeste Seridó - RN PB 34 - Solar Jaiba 3 - MG 35 - CAESA - AP 36 - UFV CALDEIRÃO SOLAR - PI 37 - UFV MENDUBIM Scatec - RN 38 - Barragem Santa Rita - BA 39 - UFV Aquarii - SHELL - MG 40 - Maltaria - Campos Gerais - PR 41 - UFV HELIO VARGAS - MG 42 - UFV  Morada do Sol - MG 43 - MINERODUTO HYDRO - PA 44 - Saneamento Manaus AGEA - AM 45 - PLANTA DE 15 MTPA - CSN - MG 47 - Projeto Malha Paulista - SP 48 - UFV BONITO - PI 49 - UFV ARINOS - MG 50 - Alteamento da Barragem Santa Rita - MG 51 - Serra Azul II - MG 52 - Solar Bahia - BA 53 - Nexa Infra Pilha de Rejeito - MT 54 - Contorno Ferroviário Sao José - SP 55 - ETE Jaboatão - PE 2020 01 - AERODROMO ARIPUANÃ 02 - UTE Novo Tempo Barcarena 03 - Linha de Transmissão GNA II – SE Campos 2 - LT 500 kV 04 - LT  Lotes 02 e 03 05 - ARIPUANÃ INFRA 06 - EOL Tucano 07 - Descaracterização da Barragem do Germano 08 - Adutora Governador Valadares 09 - Mina de Brucutu (Vale) 10 - UFV CASABLANCA SOLAR 11 - Copasa Água Montes Claros 12 - URQS Rio Pinheiro 13 - UFV Grande Sertão 14 - Terminal Vila do Conde - Barcarena 15 - Aditivo Infra Aripuanã 16 - Duplicação SP-255 17 - MX - FER TREN MAYA 18 - Abastecimento de água montes claros 19 - UFV Sol Serra do Mel 21 - UFV Coremas 22 - Terminal de Regasificação e gaseoduto Comgas 23 - Reparação terminal Libra 24 - Linha de transmissão Lote 15 25 - Acueducto PSIQ - Puchuncaví, San Isodro y Quilapilun 26 - Aripuanã - Novo Pacote integrado 27 - Desen. Mina Subterranea Turmalina Pilar - 28 - UFV  Milagres  e UFV Bom lugar 29 - Tunel San Gaban III 30 - Implantação Porto de Imetame 31 - Patio PZG Expansão Cubatão 32 - UTE Nina Pedra Branca 32a - UTE GNA i Ciclo Simples 33 - UTE Energy I - Espirito Santo 33 - UTE GNA I - CICLO SIMPLES 34 - UTE ENERGY I - ES 35 - UHE Tabajara 36  - UFV BJL+Pajeú 190MWp Parcial Full EPC PV+HV (BA) 37  - UFV Irapuru - 250 MWP BoS Fase 2 (MG) 38 -  UFV Barreiras - 20 MWp - BOS (CE) 39 - Saneamento Mato Grosso do Sul -SANESUL (MS) 40 - Desenvolvimento Subterrâneo da Mina Lázara 41 - Leilão LT - 2º Semestre 43 - Terminal - Netuno Project - CARGILL 44 - UTE Camaçari 45 - L3 Metro de Panamá 46 - Barreira Acustica 47 - Eol Anemus Wind I e II 48 - UFV Esmeraldas 49 - Aditivo Unidades ADM Proj. Aripuanã 51 -  UTE NORTE FLUMINENSE II 52 - Projeto Piloto Sub-Bacias Mauans 53 - PCH Passo do Meio (Recuperação) 54 - UFV Ciranda 55 - Desenv. Mina Pilar 56 - Porto Imetame - Aracruz ES 57 - UFV - Serra do Mel 58 - UFV Bom Jesus da Lapa e  UFV Pajeu– Total Eren 59 - UFV Cedro 60 - UFV-s Coroá &amp; Esmeralda 61 - Lote 10 Linha de Transmissão 62 - UFV Aratinga 63 - MRN 64 - Aditivo Renova 65 - Terminal de Regaseificação de GNL Barcarena The amount of ZAGOPE data reaches 1.5Tb and includes data on such projects as: -  construction of dams, hydroelectric power stations -  building road and telecommunication systems -  tunneling, shaft sinking, open-cast mining -  restoration of tracks and stations -  construction of gas systems -  construction of airports -  construction of bridges -  construction of ports -  subway construction -  transformer station -  sewerage systems -  irrigation system -  geological works -  pumping station -  road building -  water canals -  pipe laying -  heliports Example of the projects: MLOTZGP-APP001 -  all data on the construction of the metro in Lisbon -  strategic project of the company -  critical infrastructure -  geological survey -  schedules -  tunneling -  reports -  design 19-C022-PRT-BAAT-IBER -  confidential, internal use -  hydroelectric power plant master plan ALTO TAMEGA -  layout drawings of the electrical units -  Drawings of the dam structure -  drawings of the sluices -  prospecting diagrams -  critical infrastructure -  layout of the dam -  all in detail 20-C015-MOZ-INLE-JFT4 -  gas storage facility with all infrastructure -  detailed layout of the complex -  detailed drawings of all units -  drawings of even small parts -  Rovuma LNG Phase 1 Project -  water loading terminal -  location: Mozambique -  operating instructions -  client: ExxonMobil -  parts lists 20-C021-MOZ-SITE-FLU4 -  maps of territories with indications of soil quality -  resource extraction for ExxonMobil -  topographic maps of territories 20-C004-MOZ-CVT1-CCS1 -  Geological data on MOZAMBIQUE GAS DEVELOPMENT -  medium-capacity pipes -  gas piping 20-C002-AGO-AER-MBAN -  access roads for transport -  Airport (Congo - Zaire) -  airport building -  detailed charts 19-C023-PRT-PGDL -  large, well-known facility -  Monsanto Tunnel Password for proofs archive:      ]NB{3gQ{?1[1&amp;g]65`:"&gt;FMw/.,w&gt;Q^+tD Password for all data archives:     238g823gjkhd73</t>
+          <t>ANDRADE GUTIERREZ is a Brazilian private multinational conglomerate headquartered in Belo Horizonte. As of 2013, Andrade Gutierrez is the second largest construction company in Brazil with branches in 44 countries and a net income of 8 billion BRL. In the engineering segment, AG operates in the construction of hydroelectric power plants, thermoelectric power plants, nuclear power plants, petrochemical plants, mining, steel industry, refineries, harbors, subways, sanitation and urbanization, airports, railroads, civil engineering.</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
